--- a/Sprint 1/Documentos/PI CLIENTE EGYDIO.xlsx
+++ b/Sprint 1/Documentos/PI CLIENTE EGYDIO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -30,12 +30,6 @@
     <t>VENDA DE CONTEUDOS ACADEMICOS</t>
   </si>
   <si>
-    <t xml:space="preserve">SUGESTÃO DE NOME PARA SITE </t>
-  </si>
-  <si>
-    <t>SHAREEDUQUE</t>
-  </si>
-  <si>
     <t>Lógica de programação</t>
   </si>
   <si>
@@ -48,36 +42,18 @@
     <t xml:space="preserve"> Laboratório de Hardware</t>
   </si>
   <si>
-    <t>pontuação</t>
-  </si>
-  <si>
-    <t>concordância</t>
-  </si>
-  <si>
     <t xml:space="preserve">Português </t>
   </si>
   <si>
-    <t xml:space="preserve"> lógica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grafos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Matemática discreta </t>
   </si>
   <si>
     <t xml:space="preserve">MATERIAIS ACADEMICOS PARA VENDA </t>
   </si>
   <si>
-    <t>VIDEO</t>
-  </si>
-  <si>
     <t>PDF</t>
   </si>
   <si>
-    <t>ATIVIDADE</t>
-  </si>
-  <si>
     <t>TO BE + SUBJECT PRONOUNS</t>
   </si>
   <si>
@@ -85,38 +61,54 @@
   </si>
   <si>
     <t>verb to be, days of the week, greetings, numbers 0-100</t>
-  </si>
-  <si>
-    <t>HISTORIA- INTRODUÇÃO</t>
-  </si>
-  <si>
-    <t>QUESTIONÁRIO</t>
-  </si>
-  <si>
-    <t>CONCEITOS</t>
-  </si>
-  <si>
-    <t>INTRODUÇÃO(LÓGICA DE PROGRAMAÇÃO)</t>
   </si>
   <si>
     <t>a/an, plurals;a/an, plurals;
 this / that / these / those</t>
+  </si>
+  <si>
+    <t>O QUE É UM ALGORITIMO</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO( O QUE É LÓGICA DE PROGRAMAÇÃO)</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO AO COMPUTADOR</t>
+  </si>
+  <si>
+    <t>COMPONENTES DO COMPUTADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUGESTÃO DE NOME PARA O SITE </t>
+  </si>
+  <si>
+    <t>HISTÓRIA- INTRODUÇÃO</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t>Concordância</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lógica</t>
+  </si>
+  <si>
+    <t>PDF/VIDEO</t>
+  </si>
+  <si>
+    <t>SHAREDUCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,24 +123,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -169,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -255,65 +256,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,6 +336,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1357312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="WhatsApp Image 2020-09-23 at 19.21.17.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6988968" y="250028"/>
+          <a:ext cx="1250157" cy="1250157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,210 +666,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="14" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" thickBot="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="4" t="s">
+      <c r="B23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="6" t="s">
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" thickBot="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="16"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>19</v>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.62" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
